--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2853784.461994848</v>
+        <v>2851449.350792868</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8777084.327873321</v>
+        <v>8777084.327873319</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>45.20357473338002</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>120.2145230749714</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>39.15797524740221</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>176.2042181108076</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>115.6532283794924</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>245.8960234481107</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.24924571897635</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>73.00698844450822</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697828</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>240.3635537979618</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>2.398536716038238</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>75.08886905994584</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146491</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>78.91051008678102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>519.5572140912814</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="C2" t="n">
-        <v>519.5572140912814</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D2" t="n">
-        <v>519.5572140912814</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E2" t="n">
-        <v>519.5572140912814</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>512.6117133420779</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>96.90696306636676</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>96.90696306636676</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1296.296386131215</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>906.1570541554031</v>
+        <v>1522.82172026622</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>662.3527266874008</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305.8408313751036</v>
+        <v>535.7199774115536</v>
       </c>
       <c r="C4" t="n">
-        <v>305.8408313751036</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,7 +4507,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
@@ -4519,19 +4519,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>936.2714262468908</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>936.2714262468908</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="W4" t="n">
-        <v>936.2714262468908</v>
+        <v>535.7199774115536</v>
       </c>
       <c r="X4" t="n">
-        <v>708.2818753488734</v>
+        <v>535.7199774115536</v>
       </c>
       <c r="Y4" t="n">
-        <v>487.4892962053433</v>
+        <v>535.7199774115536</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.12525314008</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>479.0728741272044</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331015</v>
+        <v>472.127373378001</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800308</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2313.959506735396</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1961.190851465281</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1587.725093204202</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.725093204202</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180658</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495373</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508757</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105702</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281863</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>388.1694341876314</v>
+        <v>359.6292930162434</v>
       </c>
       <c r="C7" t="n">
-        <v>219.2332512597245</v>
+        <v>359.6292930162434</v>
       </c>
       <c r="D7" t="n">
-        <v>219.2332512597245</v>
+        <v>209.5126536039077</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800308</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312191</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1562.701687302266</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1308.017199096379</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W7" t="n">
-        <v>1018.600029059419</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="X7" t="n">
-        <v>790.6104781614013</v>
+        <v>762.0703369900133</v>
       </c>
       <c r="Y7" t="n">
-        <v>569.8178990178711</v>
+        <v>541.2777578464832</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>198.893319710031</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>191.9478189608275</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>180.9157728462281</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3082.814353126381</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2751.75146578281</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1733.185899555685</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.501411349798</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>923.4916164683269</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683269</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,49 +5495,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,43 +5741,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7257,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,19 +7549,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515139</v>
+        <v>70.03064962107834</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601769</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878364</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.157952038682</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194186</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>69.70496293143134</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584156</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584156</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380343</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442552</v>
@@ -26332,25 +26332,25 @@
         <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442548</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403383</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744299</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744308</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744308</v>
+      </c>
+      <c r="H4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8727.256391744242</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744242</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744228</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744244</v>
+        <v>8727.256391744275</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744226</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
+        <v>8727.256391744308</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="N4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="O4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744286</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665852.2328547132</v>
+        <v>-665852.2328547137</v>
       </c>
       <c r="C6" t="n">
         <v>448899.5507212062</v>
       </c>
       <c r="D6" t="n">
-        <v>288884.0879732064</v>
+        <v>288884.087973207</v>
       </c>
       <c r="E6" t="n">
-        <v>230633.6967212482</v>
+        <v>230598.9587958129</v>
       </c>
       <c r="F6" t="n">
-        <v>556046.1585286038</v>
+        <v>556011.4206031681</v>
       </c>
       <c r="G6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="H6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.420603168</v>
       </c>
       <c r="I6" t="n">
-        <v>556046.1585286038</v>
+        <v>556011.420603168</v>
       </c>
       <c r="J6" t="n">
-        <v>388440.980718621</v>
+        <v>388406.2427931853</v>
       </c>
       <c r="K6" t="n">
-        <v>556046.1585286035</v>
+        <v>556011.4206031681</v>
       </c>
       <c r="L6" t="n">
-        <v>507752.188520413</v>
+        <v>507717.4505949772</v>
       </c>
       <c r="M6" t="n">
-        <v>470991.1305930918</v>
+        <v>470956.3926676558</v>
       </c>
       <c r="N6" t="n">
-        <v>556046.1585286037</v>
+        <v>556011.4206031681</v>
       </c>
       <c r="O6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.4206031682</v>
       </c>
       <c r="P6" t="n">
-        <v>556046.1585286035</v>
+        <v>556011.4206031678</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>20.50633793909045</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>266.0234155810822</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>128.0888458512256</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>110.022936010393</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>295.8944743934616</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>81.85623502202418</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>94.54734948492421</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27828,13 +27828,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>213.2201656766924</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.63161816094021</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>283.8133014895747</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-5.30377657959311e-13</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.988773068867788e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,28 +34448,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>562.7107934893642</v>
+        <v>367.7110102589286</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34796,7 +34796,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113685</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
